--- a/biology/Médecine/Glande/Glande.xlsx
+++ b/biology/Médecine/Glande/Glande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une glande est un organe des animaux ou des plantes qui synthétise une substance qui sera sécrétée. 
 La substance libérée peut avoir un rôle dans la communication intercellulaire, comme les hormones qui sont émises dans la circulation sanguine (on parle de glande endocrine). 
@@ -518,7 +530,9 @@
           <t>Homme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Homme a une grande variété de glandes, de l'hypophyse dans le cerveau aux glandes sudoripares dispersées sur la peau qui libèrent la sueur. Parmi d'autres glandes notables, on peut citer les glandes surrénales, la prostate, la glande thyroïde, la glande pinéale, le thymus, la glande mammaire et les glandes digestives. Trois autres glandes appariées sont les glandes parotides, submandibulaires et sublinguales, toutes trois impliquées dans la production de salive. Leur liste complète est disponible ci-dessous sous l'onglet Glandes, ainsi que leur appartenance à l'un des sexes ou les deux.
 </t>
@@ -549,7 +563,9 @@
           <t>Animaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les animaux, des glandes variées produisent des phéromones marquant le passage ou le territoire de l'animal ou d'un groupe. 
 Tel est le cas des Araignées (Araneae) qui sont les Arthropodes probablement les mieux pourvus en glandes exocrines : glandes séricigènes et glandes à venin, les plus « classiques », et divers autres organes  producteurs ou non de phéromones, intervenant à des degrés divers dans  la reproduction (glandes rostrale, clypéale, gnathocoxales, segmentaires, glande labio-sternale propre aux Theridiosomatidae et glandes prégonoporales de l'appareil épigastrique. Les Araignées possèdent aussi des glandes endocrines : glande de mue, tissu réticulé, glande endocrinoïde abdominale des Mastophora 
@@ -583,9 +599,11 @@
           <t>Végétaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez le végétaux, les glandes sont des « réservoirs, souvent en forme de minuscule tête d'épingle, contenant des liquides sécrétés par des cellules spéciales »[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez le végétaux, les glandes sont des « réservoirs, souvent en forme de minuscule tête d'épingle, contenant des liquides sécrétés par des cellules spéciales ».
 </t>
         </is>
       </c>
